--- a/dadosMemoria.xlsx
+++ b/dadosMemoria.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T.S\Dropbox\Estatística\Meus Livros\Bioestatística_R\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\statsR\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D9A8A8-3734-4271-AB98-2FA65FFAB946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771B076B-83BB-4D11-A47A-97A43C667B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -533,15 +546,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,9 +613,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +653,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +759,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,7 +901,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,7 +912,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,8 +939,8 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>65</v>
+      <c r="C2" s="2">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,8 +950,8 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>70</v>
+      <c r="C3" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +961,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>60</v>
       </c>
     </row>
@@ -962,7 +972,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>60</v>
       </c>
     </row>
@@ -973,7 +983,7 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
     </row>
@@ -984,7 +994,7 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>55</v>
       </c>
     </row>
@@ -995,7 +1005,7 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1006,7 +1016,7 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1017,7 +1027,7 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1028,7 +1038,7 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1039,7 +1049,7 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1050,7 +1060,7 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1061,7 +1071,7 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1072,7 +1082,7 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1083,7 +1093,7 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1094,8 +1104,8 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>50</v>
+      <c r="C17" s="2">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1115,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1116,7 +1126,7 @@
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1127,7 +1137,7 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1138,7 +1148,7 @@
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1149,7 +1159,7 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1160,7 +1170,7 @@
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1171,7 +1181,7 @@
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>50</v>
       </c>
     </row>
@@ -1182,7 +1192,7 @@
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>50</v>
       </c>
     </row>
@@ -1193,7 +1203,7 @@
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>50</v>
       </c>
     </row>
@@ -1204,7 +1214,7 @@
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1215,7 +1225,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1226,7 +1236,7 @@
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1237,7 +1247,7 @@
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1248,7 +1258,7 @@
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1259,7 +1269,7 @@
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1270,7 +1280,7 @@
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1281,7 +1291,7 @@
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>45</v>
       </c>
     </row>
@@ -1292,7 +1302,7 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1303,7 +1313,7 @@
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>85</v>
       </c>
     </row>
@@ -1314,7 +1324,7 @@
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1325,7 +1335,7 @@
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1336,7 +1346,7 @@
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1347,7 +1357,7 @@
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1358,7 +1368,7 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1369,7 +1379,7 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>30</v>
       </c>
     </row>
@@ -1380,7 +1390,7 @@
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>30</v>
       </c>
     </row>
@@ -1391,7 +1401,7 @@
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>30</v>
       </c>
     </row>
@@ -1402,7 +1412,7 @@
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1413,7 +1423,7 @@
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>35</v>
       </c>
     </row>
@@ -1424,7 +1434,7 @@
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1435,7 +1445,7 @@
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>45</v>
       </c>
     </row>
@@ -1446,7 +1456,7 @@
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>40</v>
       </c>
     </row>
